--- a/MicroservicesAssignment2.xlsx
+++ b/MicroservicesAssignment2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahul\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gateway Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>Library Management System</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>Salary</t>
-  </si>
-  <si>
-    <t>pPassword</t>
   </si>
   <si>
     <t>Address</t>
@@ -234,20 +231,20 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,7 +528,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:L2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,90 +545,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -675,7 +672,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -692,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -706,7 +703,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -717,70 +714,70 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="K18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -843,7 +840,7 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K22" t="s">
         <v>12</v>
@@ -857,7 +854,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K23" t="s">
         <v>13</v>
@@ -868,69 +865,71 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="K26" s="5" t="s">
+      <c r="G26" s="3"/>
+      <c r="K26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L26" s="5"/>
+      <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
+      <c r="B27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="F29" s="5" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="F29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
+      <c r="G29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="B30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="F1:L2"/>
     <mergeCell ref="K26:L29"/>
     <mergeCell ref="A3:L4"/>
     <mergeCell ref="A13:L14"/>
@@ -938,8 +937,6 @@
     <mergeCell ref="F29:G32"/>
     <mergeCell ref="A27:B29"/>
     <mergeCell ref="A30:B32"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="F1:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
